--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA4176E-03D6-4027-9E7C-1969123D7FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20AD10-CC88-4763-959D-1FEC4824B8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="892" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="892" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="活" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="922">
   <si>
     <t>General</t>
   </si>
@@ -3623,12 +3623,27 @@
     <t>git ,loop, indicator</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">trend: [False, 1, 1], pgain2: [True, 1, 1], </t>
+  </si>
+  <si>
+    <t>old wrong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new correct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>best 2 combo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3773,14 +3788,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3974,7 +3981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4134,12 +4141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4157,6 +4158,14 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5464,7 +5473,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.390625" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -5638,87 +5647,99 @@
       <c r="A17" s="52" t="s">
         <v>853</v>
       </c>
+      <c r="C17" s="52" t="s">
+        <v>920</v>
+      </c>
       <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A18" s="52" t="s">
         <v>852</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="C18" s="52" t="s">
+        <v>921</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A19" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>906</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>911</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A20" s="52" t="s">
         <v>855</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>906</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>904</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A21" s="52" t="s">
         <v>856</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>909</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>908</v>
-      </c>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.65">
       <c r="C22" s="52" t="s">
-        <v>907</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>905</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="D23" s="55" t="s">
-        <v>857</v>
+      <c r="C23" s="52" t="s">
+        <v>906</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A24" s="52" t="s">
         <v>779</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>789</v>
+      <c r="C24" s="52" t="s">
+        <v>906</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A25" s="52" t="s">
         <v>780</v>
       </c>
+      <c r="C25" s="52" t="s">
+        <v>909</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A26" s="52" t="s">
         <v>781</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="C26" s="52" t="s">
+        <v>907</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A27" s="52" t="s">
         <v>743</v>
       </c>
+      <c r="D27" s="64" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A28" s="52" t="s">
         <v>782</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.65">
@@ -11699,57 +11720,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.65">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="62"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="60"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.65">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="51" t="s">
         <v>718</v>
       </c>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F20AD10-CC88-4763-959D-1FEC4824B8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E86FA80-7BAF-4013-AF49-75202BC80376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="892" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="949" activeTab="2" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="活" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="913">
   <si>
     <t>General</t>
   </si>
@@ -3416,10 +3416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pri,fun,oth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>used_on</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3432,18 +3428,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>asset_weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>date indicators=asset indicators+ derived date indicator</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3500,57 +3488,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ts_code1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts_code2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts_code3</t>
-  </si>
-  <si>
-    <t>ts_code4</t>
-  </si>
-  <si>
-    <t>ts_code5</t>
-  </si>
-  <si>
-    <t>ts_code6</t>
-  </si>
-  <si>
-    <t>ts_code7</t>
-  </si>
-  <si>
-    <t>pearson1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pearson2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>indicator pearson</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>indicator mean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>all ts_code view in general for all time until today</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resistance calculation use numba</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3636,6 +3573,38 @@
   </si>
   <si>
     <t>best 2 combo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pri,fun,oth,date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>least square of error with trend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pearson with future price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean with future price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std with future price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend with that</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top n cased</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4141,6 +4110,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4158,14 +4135,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5472,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.390625" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -5490,7 +5459,7 @@
         <v>777</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>784</v>
@@ -5507,10 +5476,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A2" s="52" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>755</v>
@@ -5522,15 +5491,15 @@
         <v>749</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A3" s="52" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>753</v>
@@ -5585,7 +5554,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" s="52" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>849</v>
@@ -5596,7 +5565,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A9" s="52" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>859</v>
@@ -5607,7 +5576,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A10" s="52" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>750</v>
@@ -5618,7 +5587,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A11" s="52" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>752</v>
@@ -5629,12 +5598,12 @@
         <v>850</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A13" s="52" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
@@ -5648,7 +5617,7 @@
         <v>853</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="D17" s="54"/>
     </row>
@@ -5657,10 +5626,10 @@
         <v>852</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>921</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>918</v>
+        <v>904</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.65">
@@ -5677,20 +5646,20 @@
       <c r="A21" s="52" t="s">
         <v>856</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.65">
       <c r="C22" s="52" t="s">
-        <v>919</v>
-      </c>
-      <c r="D22" s="62"/>
+        <v>902</v>
+      </c>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.65">
       <c r="C23" s="52" t="s">
-        <v>906</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>911</v>
+        <v>889</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.65">
@@ -5698,10 +5667,10 @@
         <v>779</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>906</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>904</v>
+        <v>889</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.65">
@@ -5709,10 +5678,10 @@
         <v>780</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>909</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>908</v>
+        <v>892</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.65">
@@ -5720,17 +5689,17 @@
         <v>781</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>907</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>905</v>
+        <v>890</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A27" s="52" t="s">
         <v>743</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="58" t="s">
         <v>857</v>
       </c>
     </row>
@@ -5738,7 +5707,7 @@
       <c r="A28" s="52" t="s">
         <v>782</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="58" t="s">
         <v>789</v>
       </c>
     </row>
@@ -8877,7 +8846,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -9772,10 +9741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540D9E59-6473-4377-9563-7805E5BAFFF1}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -9785,168 +9754,143 @@
     <col min="5" max="5" width="11.60546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>863</v>
       </c>
       <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
-        <v>868</v>
-      </c>
-      <c r="F1" t="s">
-        <v>870</v>
-      </c>
-      <c r="K1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="J3" t="s">
-        <v>894</v>
-      </c>
-      <c r="K3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="I4" t="s">
-        <v>885</v>
-      </c>
-      <c r="J4" t="s">
-        <v>892</v>
-      </c>
-      <c r="K4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>863</v>
       </c>
-      <c r="I5" t="s">
-        <v>886</v>
-      </c>
-      <c r="J5" t="s">
-        <v>893</v>
-      </c>
-      <c r="K5" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>113</v>
       </c>
       <c r="B6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
         <v>864</v>
       </c>
-      <c r="I6" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>865</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
         <v>866</v>
       </c>
-      <c r="I7" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A8" t="s">
-        <v>867</v>
-      </c>
-      <c r="I8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A9" t="s">
-        <v>878</v>
-      </c>
-      <c r="I9" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="I10" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
+        <v>870</v>
+      </c>
+      <c r="B12" t="s">
+        <v>871</v>
+      </c>
+      <c r="D12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
         <v>873</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>874</v>
       </c>
-      <c r="D12" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
         <v>876</v>
-      </c>
-      <c r="B13" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" t="s">
-        <v>879</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
+        <v>877</v>
+      </c>
+      <c r="B15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>879</v>
+      </c>
+      <c r="B16" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A17" t="s">
         <v>880</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A18" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16" t="s">
-        <v>882</v>
-      </c>
-      <c r="B16" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A17" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="s">
-        <v>884</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="B21" t="s">
+        <v>906</v>
+      </c>
+      <c r="C21" t="s">
+        <v>907</v>
+      </c>
+      <c r="D21" t="s">
+        <v>908</v>
+      </c>
+      <c r="E21" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A22" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A24" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -9960,7 +9904,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -11720,57 +11664,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.65">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.65">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>720</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="55" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="59" t="s">
         <v>719</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
       <c r="V2" s="51" t="s">
         <v>718</v>
       </c>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C573B7-860D-43CF-BA1F-F3A53A0AD7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE7974-BB08-432D-998C-6ADC04C64557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="843">
   <si>
     <t>General</t>
   </si>
@@ -3209,6 +3209,90 @@
   </si>
   <si>
     <t>科创板，新三板，港股，德股，美股</t>
+  </si>
+  <si>
+    <t>finish implement portfolio capital cash, weight, fee</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>day5</t>
+  </si>
+  <si>
+    <t>day6</t>
+  </si>
+  <si>
+    <t>day7</t>
+  </si>
+  <si>
+    <t>day8</t>
+  </si>
+  <si>
+    <t>day9</t>
+  </si>
+  <si>
+    <t>day10</t>
+  </si>
+  <si>
+    <t>day11</t>
+  </si>
+  <si>
+    <t>day12</t>
+  </si>
+  <si>
+    <t>day13</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>ts_code</t>
+  </si>
+  <si>
+    <t>everything else</t>
+  </si>
+  <si>
+    <t>day1,sell,ts_code</t>
+  </si>
+  <si>
+    <t>day1,hold,ts_code</t>
+  </si>
+  <si>
+    <t>dict_dict</t>
+  </si>
+  <si>
+    <t>dict_a</t>
+  </si>
+  <si>
+    <t>for each setting</t>
+  </si>
+  <si>
+    <t>for each day</t>
+  </si>
+  <si>
+    <t>for each trade type</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>buy 8</t>
   </si>
 </sst>
 </file>
@@ -3682,12 +3766,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4994,8 +5078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5064,6 +5148,9 @@
       <c r="A4" t="s">
         <v>710</v>
       </c>
+      <c r="B4" s="49" t="s">
+        <v>815</v>
+      </c>
       <c r="E4" s="49" t="s">
         <v>682</v>
       </c>
@@ -5229,7 +5316,7 @@
       <c r="C19" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>803</v>
       </c>
     </row>
@@ -5275,8 +5362,148 @@
     <row r="26" spans="1:6">
       <c r="F26" s="54"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="27" spans="1:6">
+      <c r="C27" s="49" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="49" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="49" t="s">
+        <v>839</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>841</v>
+      </c>
+      <c r="E31" s="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="E32" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="49" t="s">
+        <v>840</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="C36" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="C37" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="C38" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="C39" s="49" t="s">
+        <v>818</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="C40" s="49" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="C41" s="49" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="C42" s="49" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="C43" s="49" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="C44" s="49" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="C45" s="49" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" s="49" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="C47" s="49" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="C48" s="49" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49"/>
+      <c r="C49" s="49" t="s">
+        <v>828</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5671,14 +5898,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
         <v>805</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
@@ -5766,29 +5993,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -5821,10 +6048,10 @@
       <c r="J2" t="s">
         <v>752</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="L2" s="56"/>
+      <c r="L2" s="58"/>
       <c r="M2" t="s">
         <v>759</v>
       </c>
@@ -11672,7 +11899,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>606</v>
       </c>
     </row>
@@ -11685,7 +11912,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>811</v>
       </c>
     </row>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE7974-BB08-432D-998C-6ADC04C64557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79FF48-26A0-4DF9-8496-3B4950B62252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
-    <sheet name="测试" sheetId="17" r:id="rId2"/>
-    <sheet name="信号" sheetId="15" r:id="rId3"/>
-    <sheet name="问答" sheetId="1" r:id="rId4"/>
-    <sheet name="指标" sheetId="9" r:id="rId5"/>
-    <sheet name="科学" sheetId="6" r:id="rId6"/>
-    <sheet name="经济" sheetId="5" r:id="rId7"/>
-    <sheet name="储存" sheetId="3" r:id="rId8"/>
-    <sheet name="数据" sheetId="7" r:id="rId9"/>
-    <sheet name="Meta" sheetId="2" r:id="rId10"/>
+    <sheet name="kelly" sheetId="19" r:id="rId2"/>
+    <sheet name="Calc" sheetId="18" r:id="rId3"/>
+    <sheet name="测试" sheetId="17" r:id="rId4"/>
+    <sheet name="信号" sheetId="15" r:id="rId5"/>
+    <sheet name="问答" sheetId="1" r:id="rId6"/>
+    <sheet name="指标" sheetId="9" r:id="rId7"/>
+    <sheet name="科学" sheetId="6" r:id="rId8"/>
+    <sheet name="经济" sheetId="5" r:id="rId9"/>
+    <sheet name="储存" sheetId="3" r:id="rId10"/>
+    <sheet name="数据" sheetId="7" r:id="rId11"/>
+    <sheet name="Meta" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">问答!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">问答!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="850">
   <si>
     <t>General</t>
   </si>
@@ -2721,10 +2723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lighting Speed formel,  m = m0/ (sqrt(1-(V/C)²)), m0=静止质量， m=运动质量，V=速度，C=光速。运动的物体质量会变大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ANN to maximize coefficient for ranking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2753,18 +2751,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>combine result from regression analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add finding from dayofweek to algo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add real money and broker fee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>What are two important premisse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2777,10 +2763,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>use exponential growth in summary backtest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>learn more techical indicator and price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2825,14 +2807,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>search everydays best trading stocks and see what they have in common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>best 2 combo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>spectral analysis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2851,14 +2825,6 @@
     <t>http://www.stockspotter.com/</t>
   </si>
   <si>
-    <t>what are non lagging indicators</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add idle time when saving result to csv to prevent overclock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3190,9 +3156,6 @@
     <t>trend deep insight ( buy trend only at 1/4 phase. ,life expactacy of a trend, frequency change of a trend, trend vs non trend for each stock = suitness of this stock for this trend, tripple point turnpoint vs double point, use fibonacci rolling_freq to recalculate a set of ma)</t>
   </si>
   <si>
-    <t>Trend</t>
-  </si>
-  <si>
     <t>add n days after 跌停</t>
   </si>
   <si>
@@ -3205,94 +3168,145 @@
     <t>simulate us stock minute data on tiger trade with high volatile american stocks</t>
   </si>
   <si>
-    <t>add portfolio theory</t>
-  </si>
-  <si>
     <t>科创板，新三板，港股，德股，美股</t>
   </si>
   <si>
-    <t>finish implement portfolio capital cash, weight, fee</t>
-  </si>
-  <si>
-    <t>day2</t>
-  </si>
-  <si>
-    <t>day1</t>
-  </si>
-  <si>
-    <t>day3</t>
-  </si>
-  <si>
-    <t>day4</t>
-  </si>
-  <si>
-    <t>day5</t>
-  </si>
-  <si>
-    <t>day6</t>
-  </si>
-  <si>
-    <t>day7</t>
-  </si>
-  <si>
-    <t>day8</t>
-  </si>
-  <si>
-    <t>day9</t>
-  </si>
-  <si>
-    <t>day10</t>
-  </si>
-  <si>
-    <t>day11</t>
-  </si>
-  <si>
-    <t>day12</t>
-  </si>
-  <si>
-    <t>day13</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>ts_code</t>
   </si>
   <si>
-    <t>everything else</t>
-  </si>
-  <si>
-    <t>day1,sell,ts_code</t>
-  </si>
-  <si>
-    <t>day1,hold,ts_code</t>
-  </si>
-  <si>
-    <t>dict_dict</t>
-  </si>
-  <si>
-    <t>dict_a</t>
-  </si>
-  <si>
-    <t>for each setting</t>
-  </si>
-  <si>
-    <t>for each day</t>
-  </si>
-  <si>
-    <t>for each trade type</t>
-  </si>
-  <si>
-    <t>sold</t>
-  </si>
-  <si>
-    <t>buy 8</t>
+    <t>Enter stocks to buy -----&gt;</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>close price</t>
+  </si>
+  <si>
+    <t>300454.SZ</t>
+  </si>
+  <si>
+    <t>深信服</t>
+  </si>
+  <si>
+    <t>601222.SH</t>
+  </si>
+  <si>
+    <t>林洋能源</t>
+  </si>
+  <si>
+    <t>000637.SZ</t>
+  </si>
+  <si>
+    <t>茂化实华</t>
+  </si>
+  <si>
+    <t>600220.SH</t>
+  </si>
+  <si>
+    <t>江苏阳光</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>002065.SZ</t>
+  </si>
+  <si>
+    <t>东华软件</t>
+  </si>
+  <si>
+    <t>000815.SZ</t>
+  </si>
+  <si>
+    <t>美利云</t>
+  </si>
+  <si>
+    <t>002298.SZ</t>
+  </si>
+  <si>
+    <t>中电兴发</t>
+  </si>
+  <si>
+    <t>002912.SZ</t>
+  </si>
+  <si>
+    <t>中新赛克</t>
+  </si>
+  <si>
+    <t>600986.SH</t>
+  </si>
+  <si>
+    <t>科达股份</t>
+  </si>
+  <si>
+    <t>603185.SH</t>
+  </si>
+  <si>
+    <t>上机数控</t>
+  </si>
+  <si>
+    <t>300111.SZ</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>shares to buy</t>
+  </si>
+  <si>
+    <t>&lt;--- Enter stock information</t>
+  </si>
+  <si>
+    <t>&lt;--- stocks in portfolio</t>
+  </si>
+  <si>
+    <t>&lt;--- Enter capital</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>if win prob is 0.9, win amount = 2%, win lose is -1%. How much should you invest according to kelly criterion adjusted for stock market?</t>
+  </si>
+  <si>
+    <t>1500,00%</t>
+  </si>
+  <si>
+    <t>win prob</t>
+  </si>
+  <si>
+    <t>lose pct</t>
+  </si>
+  <si>
+    <t>win pct</t>
+  </si>
+  <si>
+    <t>1 means 100%, 88 means 8800%</t>
+  </si>
+  <si>
+    <t>how to doge bad market time</t>
+  </si>
+  <si>
+    <t>the smaller the p_maxsize, the less beta. During bad time, decrease the port size and increase port size on good day</t>
+  </si>
+  <si>
+    <t>add portfolio theory efficient frontier</t>
+  </si>
+  <si>
+    <t>Add date indicator and seasonal indicator</t>
+  </si>
+  <si>
+    <t>use particial regression = observe stock price under different condition and then use regression</t>
   </si>
 </sst>
 </file>
@@ -5076,445 +5090,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="2" width="35.6328125" style="49" customWidth="1"/>
-    <col min="3" max="6" width="27.54296875" style="49"/>
-    <col min="9" max="16384" width="27.54296875" style="49"/>
+    <col min="1" max="1" width="35.6328125" style="49" customWidth="1"/>
+    <col min="2" max="5" width="27.54296875" style="49"/>
+    <col min="8" max="16384" width="27.54296875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="49" t="s">
         <v>604</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>808</v>
+        <v>710</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>721</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>797</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="49" t="s">
+        <v>781</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="C2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
-        <v>708</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" s="49" t="s">
-        <v>809</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>683</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>710</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>815</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>677</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" s="49" t="s">
-        <v>806</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="E7" s="49" t="s">
-        <v>707</v>
-      </c>
-      <c r="F7" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="E8" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="49" t="s">
+      <c r="B15" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="49" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>787</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="B16" s="49" t="s">
+        <v>772</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>773</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="49" t="s">
-        <v>701</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>788</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="D17" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
-        <v>700</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>789</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>775</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="49" t="s">
-        <v>702</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="49" t="s">
-        <v>703</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>786</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>813</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="49" t="s">
-        <v>706</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>715</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="49" t="s">
-        <v>689</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="49" t="s">
-        <v>690</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
-        <v>691</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>709</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="49" t="s">
-        <v>692</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>781</v>
-      </c>
-      <c r="F21" s="53"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="49" t="s">
-        <v>696</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>782</v>
-      </c>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="49" t="s">
-        <v>783</v>
-      </c>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25" s="54"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="49" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="49" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="E29" s="49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="49" t="s">
-        <v>839</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>841</v>
-      </c>
-      <c r="E31" s="49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" s="49" t="s">
-        <v>838</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>830</v>
-      </c>
-      <c r="E32" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="49" t="s">
-        <v>840</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>830</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="C36" s="49" t="s">
-        <v>836</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="C37" s="49" t="s">
-        <v>817</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>829</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="C38" s="49" t="s">
-        <v>816</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>830</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>832</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="C39" s="49" t="s">
-        <v>818</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="C40" s="49" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="49" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="C42" s="49" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="C43" s="49" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="C44" s="49" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="C45" s="49" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="49" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="C47" s="49" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="C48" s="49" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49"/>
-      <c r="C49" s="49" t="s">
-        <v>828</v>
-      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" s="56" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="E26" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{C7A3910F-5969-41CE-B13D-FDD10987C0BB}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{D75BEAA4-3DCE-4776-B58A-7CC16C715791}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{FE12A3BD-8237-45E0-B2A2-8272D3B6D2AC}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{7711BA46-6CF1-4C36-8509-752B61D2C93D}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{3030CC01-BC15-447C-9E8F-E000DD654FDD}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{FBAB97A3-5278-4FFB-A52E-D3A260811694}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{BE6CBECF-2D42-4A53-84BB-574493FC1B9A}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{C7A3910F-5969-41CE-B13D-FDD10987C0BB}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{D75BEAA4-3DCE-4776-B58A-7CC16C715791}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{FE12A3BD-8237-45E0-B2A2-8272D3B6D2AC}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{7711BA46-6CF1-4C36-8509-752B61D2C93D}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{3030CC01-BC15-447C-9E8F-E000DD654FDD}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{FBAB97A3-5278-4FFB-A52E-D3A260811694}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{BE6CBECF-2D42-4A53-84BB-574493FC1B9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -5522,3411 +5365,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9E6C-9755-494E-B35F-D95B93657434}">
-  <dimension ref="A1:E72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DADBA-5C62-4A34-AC9B-233ED54E173D}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="1" width="20.953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58" t="s">
-        <v>805</v>
-      </c>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C2" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" t="s">
-        <v>794</v>
-      </c>
-      <c r="E2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>793</v>
-      </c>
-      <c r="B3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>801</v>
-      </c>
-      <c r="B8" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>802</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7146CF-7905-411D-AB60-014FE18FF5ED}">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.6796875" customWidth="1"/>
-    <col min="5" max="5" width="7.1328125" customWidth="1"/>
-    <col min="6" max="6" width="12.2265625" customWidth="1"/>
-    <col min="8" max="8" width="8.6796875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="58" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
-        <v>723</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58" t="s">
-        <v>724</v>
-      </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E2" t="s">
-        <v>750</v>
-      </c>
-      <c r="F2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G2" t="s">
-        <v>746</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>751</v>
-      </c>
-      <c r="I2" t="s">
-        <v>749</v>
-      </c>
-      <c r="J2" t="s">
-        <v>752</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>764</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" t="s">
-        <v>759</v>
-      </c>
-      <c r="N2" t="s">
-        <v>760</v>
-      </c>
-      <c r="O2" t="s">
-        <v>761</v>
-      </c>
-      <c r="P2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>739</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>744</v>
-      </c>
-      <c r="G3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H3" s="21">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>763</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>753</v>
-      </c>
-      <c r="M3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B4" t="s">
-        <v>731</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>740</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H4" s="21">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>754</v>
-      </c>
-      <c r="M4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>728</v>
-      </c>
-      <c r="B5" t="s">
-        <v>734</v>
-      </c>
-      <c r="E5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="G5" t="s">
-        <v>747</v>
-      </c>
-      <c r="H5" s="21">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="B6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E6" t="s">
-        <v>742</v>
-      </c>
-      <c r="G6" t="s">
-        <v>748</v>
-      </c>
-      <c r="H6" s="21">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" t="s">
-        <v>736</v>
-      </c>
-      <c r="E7" t="s">
-        <v>743</v>
-      </c>
-      <c r="G7" t="s">
-        <v>733</v>
-      </c>
-      <c r="H7" s="21">
-        <v>60</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" t="s">
-        <v>732</v>
-      </c>
-      <c r="H8" s="21">
-        <v>240</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="B9" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>768</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D688AAC-D99D-48A3-AA61-E482F3E85832}">
-  <dimension ref="A1:E66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.2265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>693</v>
-      </c>
-      <c r="E9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>686</v>
-      </c>
-      <c r="E10" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="E66" s="19"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F25" xr:uid="{16F41635-CFCC-4705-9D83-A18F52FD9038}"/>
-  <sortState ref="A2:E82">
-    <sortCondition descending="1" ref="A2:A82"/>
-    <sortCondition ref="B2:B82"/>
-    <sortCondition ref="C2:C82"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDD5250E-E92B-44EE-A7DA-F7E073883054}">
-          <x14:formula1>
-            <xm:f>Meta!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A75:A1048576 A1:A67</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F09E404E-E3D1-4F0D-8915-5E957A87A068}">
-          <x14:formula1>
-            <xm:f>Meta!$D$1:$D$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C75:C1048576 C1:C66</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72175C1E-8A95-4AC2-8914-5714E3AAACA3}">
-          <x14:formula1>
-            <xm:f>Meta!$E$1:$E$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>F75:F1048576 F1:F65</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AF90D5F-114E-40F3-9B16-9B096C4B5E6D}">
-          <x14:formula1>
-            <xm:f>Meta!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>B75:B1048576 B1:B65</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
-  <dimension ref="A1:G64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="1" width="8.6796875" style="4"/>
-    <col min="2" max="2" width="20.58984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.31640625" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625"/>
-    <col min="7" max="7" width="13.04296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="4" customWidth="1"/>
-    <col min="9" max="11" width="8.6796875" style="4"/>
-    <col min="12" max="12" width="13.2265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.26953125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.6796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.75">
-      <c r="A1" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="2" max="2" width="34.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>518</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>496</v>
-      </c>
-      <c r="B22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B23" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>496</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>496</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>496</v>
-      </c>
-      <c r="B27" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>496</v>
-      </c>
-      <c r="B28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>496</v>
-      </c>
-      <c r="B29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>496</v>
-      </c>
-      <c r="B30" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B31" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>496</v>
-      </c>
-      <c r="B34" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>496</v>
-      </c>
-      <c r="B35" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>496</v>
-      </c>
-      <c r="B36" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>496</v>
-      </c>
-      <c r="B37" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>496</v>
-      </c>
-      <c r="B38" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>496</v>
-      </c>
-      <c r="B40" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>518</v>
-      </c>
-      <c r="B41" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>518</v>
-      </c>
-      <c r="B42" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>518</v>
-      </c>
-      <c r="B43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>518</v>
-      </c>
-      <c r="B44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>518</v>
-      </c>
-      <c r="B45" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>518</v>
-      </c>
-      <c r="B46" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>518</v>
-      </c>
-      <c r="B47" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>518</v>
-      </c>
-      <c r="B48" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>496</v>
-      </c>
-      <c r="B49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>496</v>
-      </c>
-      <c r="B50" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>518</v>
-      </c>
-      <c r="B51" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>496</v>
-      </c>
-      <c r="B52" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>496</v>
-      </c>
-      <c r="B53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B54" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>496</v>
-      </c>
-      <c r="B55" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B57" t="s">
-        <v>541</v>
-      </c>
-      <c r="C57" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" t="s">
-        <v>539</v>
-      </c>
-      <c r="C58" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>496</v>
-      </c>
-      <c r="B59" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>496</v>
-      </c>
-      <c r="B60" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
-      <c r="B61" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" t="s">
-        <v>534</v>
-      </c>
-      <c r="C62" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>496</v>
-      </c>
-      <c r="B63" t="s">
-        <v>532</v>
-      </c>
-      <c r="C63" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>496</v>
-      </c>
-      <c r="B64" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>496</v>
-      </c>
-      <c r="B65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>496</v>
-      </c>
-      <c r="B66" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>496</v>
-      </c>
-      <c r="B67" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>496</v>
-      </c>
-      <c r="B68" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>496</v>
-      </c>
-      <c r="B69" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>496</v>
-      </c>
-      <c r="B70" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>496</v>
-      </c>
-      <c r="B71" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>496</v>
-      </c>
-      <c r="B74" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>518</v>
-      </c>
-      <c r="B75" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>518</v>
-      </c>
-      <c r="B76" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>496</v>
-      </c>
-      <c r="B78" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>496</v>
-      </c>
-      <c r="B79" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>496</v>
-      </c>
-      <c r="B81" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>496</v>
-      </c>
-      <c r="B82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>496</v>
-      </c>
-      <c r="B84" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>496</v>
-      </c>
-      <c r="B85" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>496</v>
-      </c>
-      <c r="B86" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>496</v>
-      </c>
-      <c r="B87" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>496</v>
-      </c>
-      <c r="B88" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>502</v>
-      </c>
-      <c r="B90" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>502</v>
-      </c>
-      <c r="B91" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>496</v>
-      </c>
-      <c r="B92" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>496</v>
-      </c>
-      <c r="B93" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>496</v>
-      </c>
-      <c r="B95" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>496</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>674</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
-  <dimension ref="A1:A83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE354621-588A-4B21-BB13-B5E3178F81D7}">
   <dimension ref="A1:L226"/>
   <sheetViews>
@@ -11596,7 +8034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE67A0-59E8-4407-9000-5ED3F9ACE7BD}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -11913,7 +8351,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="57" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -11929,4 +8367,3717 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9E6C-9755-494E-B35F-D95B93657434}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AC116-74D7-4096-87CF-7429FB535D3B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="C2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>838</v>
+      </c>
+      <c r="C3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="49">
+        <f>A1/A2-(1-A1)/A3</f>
+        <v>88</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="3" max="3" width="12.40625" customWidth="1"/>
+    <col min="4" max="4" width="14.40625" customWidth="1"/>
+    <col min="11" max="11" width="11.58984375" customWidth="1"/>
+    <col min="12" max="12" width="11.04296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I1">
+        <v>10000</v>
+      </c>
+      <c r="J1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2" s="25">
+        <v>37.65</v>
+      </c>
+      <c r="D2">
+        <f>ROUND($I$1/$I$2/C2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f>COUNTA(A1:A2000)-1</f>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="C3" s="25">
+        <v>15.2799964215423</v>
+      </c>
+      <c r="D3">
+        <f>ROUND($I$1/$I$2/C3,0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" s="25">
+        <v>44.3599992274114</v>
+      </c>
+      <c r="D4">
+        <f>ROUND($I$1/$I$2/C4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="25">
+        <v>22.9499755501222</v>
+      </c>
+      <c r="D5">
+        <f>ROUND($I$1/$I$2/C5,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="C6" s="25">
+        <v>7.2700020012007203</v>
+      </c>
+      <c r="D6">
+        <f>ROUND($I$1/$I$2/C6,0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="C7" s="25">
+        <v>7.24</v>
+      </c>
+      <c r="D7">
+        <f>ROUND($I$1/$I$2/C7,0)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="25">
+        <v>66.459994932860397</v>
+      </c>
+      <c r="D8">
+        <f>ROUND($I$1/$I$2/C8,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="C9" s="25">
+        <v>34.4</v>
+      </c>
+      <c r="D9">
+        <f>ROUND($I$1/$I$2/C9,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="D10">
+        <f>ROUND($I$1/$I$2/C10,0)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1.86000530785562</v>
+      </c>
+      <c r="D11">
+        <f>ROUND($I$1/$I$2/C11,0)</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C12" s="25">
+        <v>30.6</v>
+      </c>
+      <c r="D12">
+        <f>ROUND($I$1/$I$2/C12,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="C13" s="25">
+        <v>18.679984301412802</v>
+      </c>
+      <c r="D13">
+        <f>ROUND($I$1/$I$2/C13,0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DADBA-5C62-4A34-AC9B-233ED54E173D}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="20.953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7146CF-7905-411D-AB60-014FE18FF5ED}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.6796875" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" customWidth="1"/>
+    <col min="6" max="6" width="12.2265625" customWidth="1"/>
+    <col min="8" max="8" width="8.6796875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58" t="s">
+        <v>715</v>
+      </c>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G2" t="s">
+        <v>737</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>755</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" t="s">
+        <v>750</v>
+      </c>
+      <c r="N2" t="s">
+        <v>751</v>
+      </c>
+      <c r="O2" t="s">
+        <v>752</v>
+      </c>
+      <c r="P2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="G3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>744</v>
+      </c>
+      <c r="M3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" s="21">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>745</v>
+      </c>
+      <c r="M4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="G5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H5" s="21">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E6" t="s">
+        <v>733</v>
+      </c>
+      <c r="G6" t="s">
+        <v>739</v>
+      </c>
+      <c r="H6" s="21">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E7" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H7" s="21">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="21">
+        <v>240</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D688AAC-D99D-48A3-AA61-E482F3E85832}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.2265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>685</v>
+      </c>
+      <c r="E10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="E66" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F25" xr:uid="{16F41635-CFCC-4705-9D83-A18F52FD9038}"/>
+  <sortState ref="A2:E82">
+    <sortCondition descending="1" ref="A2:A82"/>
+    <sortCondition ref="B2:B82"/>
+    <sortCondition ref="C2:C82"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDD5250E-E92B-44EE-A7DA-F7E073883054}">
+          <x14:formula1>
+            <xm:f>Meta!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A75:A1048576 A1:A67</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F09E404E-E3D1-4F0D-8915-5E957A87A068}">
+          <x14:formula1>
+            <xm:f>Meta!$D$1:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C75:C1048576 C1:C66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72175C1E-8A95-4AC2-8914-5714E3AAACA3}">
+          <x14:formula1>
+            <xm:f>Meta!$E$1:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>F75:F1048576 F1:F65</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AF90D5F-114E-40F3-9B16-9B096C4B5E6D}">
+          <x14:formula1>
+            <xm:f>Meta!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>B75:B1048576 B1:B65</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="8.6796875" style="4"/>
+    <col min="2" max="2" width="20.58984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.31640625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625"/>
+    <col min="7" max="7" width="13.04296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="4" customWidth="1"/>
+    <col min="9" max="11" width="8.6796875" style="4"/>
+    <col min="12" max="12" width="13.2265625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.6796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.75">
+      <c r="A1" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="2" max="2" width="34.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>496</v>
+      </c>
+      <c r="B34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>496</v>
+      </c>
+      <c r="B38" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B40" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>518</v>
+      </c>
+      <c r="B41" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>518</v>
+      </c>
+      <c r="B48" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>496</v>
+      </c>
+      <c r="B54" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>496</v>
+      </c>
+      <c r="B55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>541</v>
+      </c>
+      <c r="C57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>496</v>
+      </c>
+      <c r="B60" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>496</v>
+      </c>
+      <c r="B61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" t="s">
+        <v>534</v>
+      </c>
+      <c r="C62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>496</v>
+      </c>
+      <c r="B64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>496</v>
+      </c>
+      <c r="B66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>496</v>
+      </c>
+      <c r="B69" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>518</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>496</v>
+      </c>
+      <c r="B81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>496</v>
+      </c>
+      <c r="B83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>496</v>
+      </c>
+      <c r="B84" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>496</v>
+      </c>
+      <c r="B85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>502</v>
+      </c>
+      <c r="B90" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>502</v>
+      </c>
+      <c r="B91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>496</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79FF48-26A0-4DF9-8496-3B4950B62252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF29FA4-0CDE-4F83-9DAA-47E4E5D9FE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
@@ -5093,7 +5093,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5124,9 +5124,6 @@
       <c r="A2" s="49" t="s">
         <v>693</v>
       </c>
-      <c r="B2" t="s">
-        <v>703</v>
-      </c>
       <c r="C2" s="49" t="s">
         <v>795</v>
       </c>
@@ -5138,9 +5135,6 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>705</v>
-      </c>
       <c r="C3" s="49" t="s">
         <v>799</v>
       </c>
@@ -5152,8 +5146,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="49" t="s">
-        <v>778</v>
+      <c r="C4" s="56" t="s">
+        <v>794</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>677</v>
@@ -5163,9 +5157,6 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="49" t="s">
-        <v>779</v>
-      </c>
       <c r="D5" s="49" t="s">
         <v>797</v>
       </c>
@@ -5177,9 +5168,6 @@
       <c r="A6" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>780</v>
-      </c>
       <c r="D6" s="49" t="s">
         <v>702</v>
       </c>
@@ -5188,9 +5176,6 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="49" t="s">
-        <v>781</v>
-      </c>
       <c r="D7" s="49" t="s">
         <v>675</v>
       </c>
@@ -5306,7 +5291,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="49" t="s">
         <v>701</v>
       </c>
@@ -5317,35 +5302,84 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="B18" s="49" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="C19" s="56" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="E20" s="52"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="E21" s="53"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="E23" s="53"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="E24" s="53"/>
-    </row>
-    <row r="25" spans="1:5">
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>703</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F21">
+        <f>E21*1000</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>705</v>
+      </c>
+      <c r="D22" s="49">
+        <v>1</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F24" si="0">E22*1000</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="49">
+        <v>2</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0.44</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="49" t="s">
+        <v>780</v>
+      </c>
       <c r="E25" s="54"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
+      <c r="B26" s="49" t="s">
+        <v>781</v>
+      </c>
       <c r="E26" s="54"/>
     </row>
   </sheetData>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF29FA4-0CDE-4F83-9DAA-47E4E5D9FE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C0E5B-99F7-4821-9443-296BB0B94183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
-    <sheet name="kelly" sheetId="19" r:id="rId2"/>
-    <sheet name="Calc" sheetId="18" r:id="rId3"/>
-    <sheet name="测试" sheetId="17" r:id="rId4"/>
-    <sheet name="信号" sheetId="15" r:id="rId5"/>
-    <sheet name="问答" sheetId="1" r:id="rId6"/>
-    <sheet name="指标" sheetId="9" r:id="rId7"/>
-    <sheet name="科学" sheetId="6" r:id="rId8"/>
-    <sheet name="经济" sheetId="5" r:id="rId9"/>
-    <sheet name="储存" sheetId="3" r:id="rId10"/>
-    <sheet name="数据" sheetId="7" r:id="rId11"/>
-    <sheet name="Meta" sheetId="2" r:id="rId12"/>
+    <sheet name="模拟" sheetId="20" r:id="rId2"/>
+    <sheet name="kelly" sheetId="19" r:id="rId3"/>
+    <sheet name="Calc" sheetId="18" r:id="rId4"/>
+    <sheet name="测试" sheetId="17" r:id="rId5"/>
+    <sheet name="信号" sheetId="15" r:id="rId6"/>
+    <sheet name="问答" sheetId="1" r:id="rId7"/>
+    <sheet name="指标" sheetId="9" r:id="rId8"/>
+    <sheet name="科学" sheetId="6" r:id="rId9"/>
+    <sheet name="经济" sheetId="5" r:id="rId10"/>
+    <sheet name="储存" sheetId="3" r:id="rId11"/>
+    <sheet name="数据" sheetId="7" r:id="rId12"/>
+    <sheet name="Meta" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">问答!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">问答!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="858">
   <si>
     <t>General</t>
   </si>
@@ -3183,78 +3184,6 @@
     <t>close price</t>
   </si>
   <si>
-    <t>300454.SZ</t>
-  </si>
-  <si>
-    <t>深信服</t>
-  </si>
-  <si>
-    <t>601222.SH</t>
-  </si>
-  <si>
-    <t>林洋能源</t>
-  </si>
-  <si>
-    <t>000637.SZ</t>
-  </si>
-  <si>
-    <t>茂化实华</t>
-  </si>
-  <si>
-    <t>600220.SH</t>
-  </si>
-  <si>
-    <t>江苏阳光</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>002065.SZ</t>
-  </si>
-  <si>
-    <t>东华软件</t>
-  </si>
-  <si>
-    <t>000815.SZ</t>
-  </si>
-  <si>
-    <t>美利云</t>
-  </si>
-  <si>
-    <t>002298.SZ</t>
-  </si>
-  <si>
-    <t>中电兴发</t>
-  </si>
-  <si>
-    <t>002912.SZ</t>
-  </si>
-  <si>
-    <t>中新赛克</t>
-  </si>
-  <si>
-    <t>600986.SH</t>
-  </si>
-  <si>
-    <t>科达股份</t>
-  </si>
-  <si>
-    <t>603185.SH</t>
-  </si>
-  <si>
-    <t>上机数控</t>
-  </si>
-  <si>
-    <t>300111.SZ</t>
-  </si>
-  <si>
-    <t>向日葵</t>
-  </si>
-  <si>
     <t>shares to buy</t>
   </si>
   <si>
@@ -3307,6 +3236,102 @@
   </si>
   <si>
     <t>use particial regression = observe stock price under different condition and then use regression</t>
+  </si>
+  <si>
+    <t>603229.SH</t>
+  </si>
+  <si>
+    <t>奥翔药业</t>
+  </si>
+  <si>
+    <t>002221.SZ</t>
+  </si>
+  <si>
+    <t>东华能源</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>simu</t>
+  </si>
+  <si>
+    <t>maxsize</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>600448.SH</t>
+  </si>
+  <si>
+    <t>华纺股份</t>
+  </si>
+  <si>
+    <t>000078.SZ</t>
+  </si>
+  <si>
+    <t>海王生物</t>
+  </si>
+  <si>
+    <t>000518.SZ</t>
+  </si>
+  <si>
+    <t>四环生物</t>
+  </si>
+  <si>
+    <t>600156.SH</t>
+  </si>
+  <si>
+    <t>华升股份</t>
+  </si>
+  <si>
+    <t>002341.SZ</t>
+  </si>
+  <si>
+    <t>新纶科技</t>
+  </si>
+  <si>
+    <t>300266.SZ</t>
+  </si>
+  <si>
+    <t>兴源环境</t>
+  </si>
+  <si>
+    <t>000949.SZ</t>
+  </si>
+  <si>
+    <t>新乡化纤</t>
+  </si>
+  <si>
+    <t>002551.SZ</t>
+  </si>
+  <si>
+    <t>尚荣医疗</t>
+  </si>
+  <si>
+    <t>002332.SZ</t>
+  </si>
+  <si>
+    <t>仙琚制药</t>
+  </si>
+  <si>
+    <t>600636.SH</t>
+  </si>
+  <si>
+    <t>三爱富</t>
+  </si>
+  <si>
+    <t>what about date fgain if 90% stocks winning and mean pct_chg is 2%</t>
+  </si>
+  <si>
+    <t>rsi cross over</t>
+  </si>
+  <si>
+    <t>autoregression not on plain pct_chg , but on smoothed ma pct_chg</t>
+  </si>
+  <si>
+    <t>52week high and low for fgain</t>
   </si>
 </sst>
 </file>
@@ -5093,7 +5118,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5135,6 +5160,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" s="49" t="s">
+        <v>855</v>
+      </c>
       <c r="C3" s="49" t="s">
         <v>799</v>
       </c>
@@ -5146,6 +5174,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" s="49" t="s">
+        <v>856</v>
+      </c>
       <c r="C4" s="56" t="s">
         <v>794</v>
       </c>
@@ -5157,6 +5188,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" s="49" t="s">
+        <v>857</v>
+      </c>
       <c r="D5" s="49" t="s">
         <v>797</v>
       </c>
@@ -5184,6 +5218,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" s="49" t="s">
+        <v>854</v>
+      </c>
       <c r="D8" s="49" t="s">
         <v>764</v>
       </c>
@@ -5246,7 +5283,7 @@
         <v>769</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>802</v>
@@ -5260,7 +5297,7 @@
         <v>770</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>692</v>
@@ -5288,7 +5325,7 @@
         <v>772</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5399,6 +5436,252 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE354621-588A-4B21-BB13-B5E3178F81D7}">
   <dimension ref="A1:L226"/>
   <sheetViews>
@@ -8068,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE67A0-59E8-4407-9000-5ED3F9ACE7BD}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -8403,7 +8686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9E6C-9755-494E-B35F-D95B93657434}">
   <dimension ref="A1:E72"/>
   <sheetViews>
@@ -8767,6 +9050,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95E259-184D-4CA8-9B8B-55931C83A92B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>20200217</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3.19</v>
+      </c>
+      <c r="D2">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>20200217</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.4</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AC116-74D7-4096-87CF-7429FB535D3B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8781,10 +9121,10 @@
         <v>0.91</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="C1" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8792,10 +9132,10 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="C2" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8803,10 +9143,10 @@
         <v>0.03</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="C3" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8820,7 +9160,7 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -8828,233 +9168,233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="3" max="3" width="12.40625" customWidth="1"/>
-    <col min="4" max="4" width="14.40625" customWidth="1"/>
+    <col min="1" max="1" width="14.40625" customWidth="1"/>
+    <col min="4" max="4" width="12.40625" customWidth="1"/>
     <col min="11" max="11" width="11.58984375" customWidth="1"/>
     <col min="12" max="12" width="11.04296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" t="s">
         <v>804</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>806</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>807</v>
       </c>
-      <c r="D1" t="s">
-        <v>832</v>
-      </c>
       <c r="E1" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="H1" t="s">
         <v>805</v>
       </c>
       <c r="I1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <f t="shared" ref="A2:A13" si="0">ROUND($I$1/$I$2/D2,0)</f>
+        <v>43</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="D2" s="25">
+        <v>193.98003992015899</v>
+      </c>
+      <c r="I2">
+        <f>COUNTA(B1:B2000)-1</f>
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>1603</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="D3" s="25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>1766</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="C2" s="25">
-        <v>37.65</v>
-      </c>
-      <c r="D2">
-        <f>ROUND($I$1/$I$2/C2,0)</f>
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <f>COUNTA(A1:A2000)-1</f>
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>811</v>
-      </c>
-      <c r="C3" s="25">
-        <v>15.2799964215423</v>
-      </c>
-      <c r="D3">
-        <f>ROUND($I$1/$I$2/C3,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>813</v>
-      </c>
-      <c r="C4" s="25">
-        <v>44.3599992274114</v>
-      </c>
-      <c r="D4">
-        <f>ROUND($I$1/$I$2/C4,0)</f>
-        <v>19</v>
+      <c r="D4" s="25">
+        <v>4.7199976107991803</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="25" t="s">
-        <v>814</v>
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3516</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="25">
-        <v>22.9499755501222</v>
-      </c>
-      <c r="D5">
-        <f>ROUND($I$1/$I$2/C5,0)</f>
-        <v>36</v>
+        <v>836</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.3700011782726502</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="25" t="s">
-        <v>816</v>
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>489</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="C6" s="25">
-        <v>7.2700020012007203</v>
-      </c>
-      <c r="D6">
-        <f>ROUND($I$1/$I$2/C6,0)</f>
-        <v>115</v>
+        <v>838</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D6" s="25">
+        <v>17.050011851149499</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="25" t="s">
-        <v>818</v>
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>534</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>819</v>
-      </c>
-      <c r="C7" s="25">
-        <v>7.24</v>
-      </c>
-      <c r="D7">
-        <f>ROUND($I$1/$I$2/C7,0)</f>
-        <v>115</v>
+        <v>840</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D7" s="25">
+        <v>15.6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="25" t="s">
-        <v>820</v>
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1107</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="C8" s="25">
-        <v>66.459994932860397</v>
-      </c>
-      <c r="D8">
-        <f>ROUND($I$1/$I$2/C8,0)</f>
-        <v>13</v>
+        <v>842</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="D8" s="25">
+        <v>7.5300058038305204</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="25" t="s">
-        <v>822</v>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>875</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="25">
-        <v>34.4</v>
-      </c>
-      <c r="D9">
-        <f>ROUND($I$1/$I$2/C9,0)</f>
-        <v>24</v>
+        <v>844</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="D9" s="25">
+        <v>9.5199871671478995</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="25" t="s">
-        <v>824</v>
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="C10" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="D10">
-        <f>ROUND($I$1/$I$2/C10,0)</f>
-        <v>128</v>
+        <v>846</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="D10" s="25">
+        <v>178.89999999999901</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="25" t="s">
-        <v>826</v>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1952</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>827</v>
-      </c>
-      <c r="C11" s="25">
-        <v>1.86000530785562</v>
-      </c>
-      <c r="D11">
-        <f>ROUND($I$1/$I$2/C11,0)</f>
-        <v>448</v>
+        <v>848</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4.2699914015477196</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="25" t="s">
-        <v>828</v>
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>204</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="C12" s="25">
-        <v>30.6</v>
-      </c>
-      <c r="D12">
-        <f>ROUND($I$1/$I$2/C12,0)</f>
-        <v>27</v>
+        <v>850</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="D12" s="25">
+        <v>40.9</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="25" t="s">
-        <v>830</v>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>3671</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>831</v>
-      </c>
-      <c r="C13" s="25">
-        <v>18.679984301412802</v>
-      </c>
-      <c r="D13">
-        <f>ROUND($I$1/$I$2/C13,0)</f>
-        <v>45</v>
+        <v>852</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2.2700089126559702</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9066,7 +9406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DADBA-5C62-4A34-AC9B-233ED54E173D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9156,7 +9496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7146CF-7905-411D-AB60-014FE18FF5ED}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9443,7 +9783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D688AAC-D99D-48A3-AA61-E482F3E85832}">
   <dimension ref="A1:E66"/>
   <sheetViews>
@@ -10386,20 +10726,20 @@
       <c r="B56" s="21"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10492,7 +10832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
   <dimension ref="A1:G64"/>
   <sheetViews>
@@ -11028,7 +11368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -11868,250 +12208,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
-  <dimension ref="A1:A83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C0E5B-99F7-4821-9443-296BB0B94183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B3C97-D7CB-4EBB-BDB0-986204D61EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" activeTab="3" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -5117,7 +5117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9172,8 +9172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -9213,7 +9213,7 @@
     <row r="2" spans="1:10">
       <c r="A2">
         <f t="shared" ref="A2:A13" si="0">ROUND($I$1/$I$2/D2,0)</f>
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>826</v>
@@ -9222,7 +9222,7 @@
         <v>827</v>
       </c>
       <c r="D2" s="25">
-        <v>193.98003992015899</v>
+        <v>27.939980158730101</v>
       </c>
       <c r="I2">
         <f>COUNTA(B1:B2000)-1</f>
@@ -9235,7 +9235,7 @@
     <row r="3" spans="1:10">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>1603</v>
+        <v>914</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>828</v>
@@ -9244,13 +9244,13 @@
         <v>829</v>
       </c>
       <c r="D3" s="25">
-        <v>5.2</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>1766</v>
+        <v>1558</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>834</v>
@@ -9259,13 +9259,13 @@
         <v>835</v>
       </c>
       <c r="D4" s="25">
-        <v>4.7199976107991803</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>3516</v>
+        <v>1587</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>836</v>
@@ -9274,13 +9274,13 @@
         <v>837</v>
       </c>
       <c r="D5" s="25">
-        <v>2.3700011782726502</v>
+        <v>5.2499999999999902</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>1465</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>838</v>
@@ -9289,13 +9289,13 @@
         <v>839</v>
       </c>
       <c r="D6" s="25">
-        <v>17.050011851149499</v>
+        <v>5.6899964187656602</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>1881</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>840</v>
@@ -9304,13 +9304,13 @@
         <v>841</v>
       </c>
       <c r="D7" s="25">
-        <v>15.6</v>
+        <v>4.42999472851871</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>1107</v>
+        <v>1233</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>842</v>
@@ -9319,13 +9319,13 @@
         <v>843</v>
       </c>
       <c r="D8" s="25">
-        <v>7.5300058038305204</v>
+        <v>6.7599951917297698</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>2033</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>844</v>
@@ -9334,13 +9334,13 @@
         <v>845</v>
       </c>
       <c r="D9" s="25">
-        <v>9.5199871671478995</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>2210</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>846</v>
@@ -9349,13 +9349,13 @@
         <v>847</v>
       </c>
       <c r="D10" s="25">
-        <v>178.89999999999901</v>
+        <v>3.7699936695505301</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1952</v>
+        <v>1296</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>848</v>
@@ -9364,13 +9364,13 @@
         <v>849</v>
       </c>
       <c r="D11" s="25">
-        <v>4.2699914015477196</v>
+        <v>6.43000361054278</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>814</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>850</v>
@@ -9379,13 +9379,13 @@
         <v>851</v>
       </c>
       <c r="D12" s="25">
-        <v>40.9</v>
+        <v>10.240007883326699</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>3671</v>
+        <v>622</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>852</v>
@@ -9394,7 +9394,7 @@
         <v>853</v>
       </c>
       <c r="D13" s="25">
-        <v>2.2700089126559702</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="14" spans="1:10">

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B3C97-D7CB-4EBB-BDB0-986204D61EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F5CFE-BB81-4C27-86A9-6F9124A02AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" activeTab="3" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="859">
   <si>
     <t>General</t>
   </si>
@@ -3332,6 +3332,9 @@
   </si>
   <si>
     <t>52week high and low for fgain</t>
+  </si>
+  <si>
+    <t>use support resistance on volume and other indicator</t>
   </si>
 </sst>
 </file>
@@ -5117,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5210,6 +5213,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" s="49" t="s">
+        <v>858</v>
+      </c>
       <c r="D7" s="49" t="s">
         <v>675</v>
       </c>
@@ -9172,8 +9178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F5CFE-BB81-4C27-86A9-6F9124A02AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C3800-285B-47C6-BE52-96C3EE6E511B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" activeTab="1" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="864">
   <si>
     <t>General</t>
   </si>
@@ -3335,6 +3335,21 @@
   </si>
   <si>
     <t>use support resistance on volume and other indicator</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>plain indicator fgain pearson</t>
+  </si>
+  <si>
+    <t>apply resistance, then fgain pearson</t>
+  </si>
+  <si>
+    <t>apply rsi, then fgain pearson</t>
+  </si>
+  <si>
+    <t>apply trend, then fgain pearson</t>
   </si>
 </sst>
 </file>
@@ -5120,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -9059,11 +9074,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95E259-184D-4CA8-9B8B-55931C83A92B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="11.76953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9507,7 +9525,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -9766,14 +9784,52 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="13" spans="1:17">
+      <c r="E13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>759</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C3800-285B-47C6-BE52-96C3EE6E511B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225617DC-FD65-42B4-9B05-9E09323E49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" activeTab="1" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
-    <sheet name="模拟" sheetId="20" r:id="rId2"/>
-    <sheet name="kelly" sheetId="19" r:id="rId3"/>
-    <sheet name="Calc" sheetId="18" r:id="rId4"/>
-    <sheet name="测试" sheetId="17" r:id="rId5"/>
-    <sheet name="信号" sheetId="15" r:id="rId6"/>
-    <sheet name="问答" sheetId="1" r:id="rId7"/>
-    <sheet name="指标" sheetId="9" r:id="rId8"/>
-    <sheet name="科学" sheetId="6" r:id="rId9"/>
-    <sheet name="经济" sheetId="5" r:id="rId10"/>
-    <sheet name="储存" sheetId="3" r:id="rId11"/>
-    <sheet name="数据" sheetId="7" r:id="rId12"/>
-    <sheet name="Meta" sheetId="2" r:id="rId13"/>
+    <sheet name="resistance" sheetId="21" r:id="rId2"/>
+    <sheet name="模拟" sheetId="20" r:id="rId3"/>
+    <sheet name="kelly" sheetId="19" r:id="rId4"/>
+    <sheet name="Calc" sheetId="18" r:id="rId5"/>
+    <sheet name="测试" sheetId="17" r:id="rId6"/>
+    <sheet name="信号" sheetId="15" r:id="rId7"/>
+    <sheet name="问答" sheetId="1" r:id="rId8"/>
+    <sheet name="指标" sheetId="9" r:id="rId9"/>
+    <sheet name="科学" sheetId="6" r:id="rId10"/>
+    <sheet name="经济" sheetId="5" r:id="rId11"/>
+    <sheet name="储存" sheetId="3" r:id="rId12"/>
+    <sheet name="数据" sheetId="7" r:id="rId13"/>
+    <sheet name="Meta" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">问答!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">问答!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="858">
   <si>
     <t>General</t>
   </si>
@@ -3145,9 +3146,6 @@
     <t xml:space="preserve">trend: [False, 100, 1], pct_chg: [True, 5, 1], pgain2: [True, 3, 1], pgain5: [True, 2, 1], </t>
   </si>
   <si>
-    <t>leave rsi and close undeleted</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -3238,18 +3236,6 @@
     <t>use particial regression = observe stock price under different condition and then use regression</t>
   </si>
   <si>
-    <t>603229.SH</t>
-  </si>
-  <si>
-    <t>奥翔药业</t>
-  </si>
-  <si>
-    <t>002221.SZ</t>
-  </si>
-  <si>
-    <t>东华能源</t>
-  </si>
-  <si>
     <t>trade_date</t>
   </si>
   <si>
@@ -3262,66 +3248,6 @@
     <t>real</t>
   </si>
   <si>
-    <t>600448.SH</t>
-  </si>
-  <si>
-    <t>华纺股份</t>
-  </si>
-  <si>
-    <t>000078.SZ</t>
-  </si>
-  <si>
-    <t>海王生物</t>
-  </si>
-  <si>
-    <t>000518.SZ</t>
-  </si>
-  <si>
-    <t>四环生物</t>
-  </si>
-  <si>
-    <t>600156.SH</t>
-  </si>
-  <si>
-    <t>华升股份</t>
-  </si>
-  <si>
-    <t>002341.SZ</t>
-  </si>
-  <si>
-    <t>新纶科技</t>
-  </si>
-  <si>
-    <t>300266.SZ</t>
-  </si>
-  <si>
-    <t>兴源环境</t>
-  </si>
-  <si>
-    <t>000949.SZ</t>
-  </si>
-  <si>
-    <t>新乡化纤</t>
-  </si>
-  <si>
-    <t>002551.SZ</t>
-  </si>
-  <si>
-    <t>尚荣医疗</t>
-  </si>
-  <si>
-    <t>002332.SZ</t>
-  </si>
-  <si>
-    <t>仙琚制药</t>
-  </si>
-  <si>
-    <t>600636.SH</t>
-  </si>
-  <si>
-    <t>三爱富</t>
-  </si>
-  <si>
     <t>what about date fgain if 90% stocks winning and mean pct_chg is 2%</t>
   </si>
   <si>
@@ -3350,6 +3276,63 @@
   </si>
   <si>
     <t>apply trend, then fgain pearson</t>
+  </si>
+  <si>
+    <t>close undeleted</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>price crosses the highest high resistance and breaks it. Happens often, is relatively good</t>
+  </si>
+  <si>
+    <t>price hits the lowest low. Happens very rare, but involves very high bound return</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>vs1</t>
+  </si>
+  <si>
+    <t>300204.SZ</t>
+  </si>
+  <si>
+    <t>舒泰神</t>
+  </si>
+  <si>
+    <t>600289.SH</t>
+  </si>
+  <si>
+    <t>*ST信通</t>
+  </si>
+  <si>
+    <t>write a good evaluator function to 1. create, 2. evaluate, 3. summarize the hypothesis = bruteforce</t>
+  </si>
+  <si>
+    <t>trend: some stock have a higher pearson  of trend to fgain. Maybe they are better suited for using trend strategy. OR is it just coincidence?</t>
+  </si>
+  <si>
+    <t>reversed method = search all good stocks on one day and find what they have in common</t>
+  </si>
+  <si>
+    <t>Try the smallest share strategy: buy smallest absolute close price on each day</t>
   </si>
 </sst>
 </file>
@@ -5135,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5168,7 +5151,7 @@
         <v>693</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>683</v>
@@ -5179,10 +5162,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="49" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>682</v>
@@ -5193,7 +5176,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="49" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>794</v>
@@ -5207,10 +5190,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="49" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>709</v>
@@ -5229,7 +5212,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="49" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>675</v>
@@ -5240,7 +5223,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="49" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>764</v>
@@ -5250,6 +5233,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" s="49" t="s">
+        <v>854</v>
+      </c>
       <c r="D9" s="49" t="s">
         <v>765</v>
       </c>
@@ -5293,7 +5279,7 @@
         <v>777</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5304,10 +5290,10 @@
         <v>769</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5318,7 +5304,7 @@
         <v>770</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>692</v>
@@ -5335,7 +5321,7 @@
         <v>678</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5346,7 +5332,7 @@
         <v>772</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5357,7 +5343,7 @@
         <v>773</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5366,6 +5352,9 @@
       </c>
     </row>
     <row r="20" spans="1:6">
+      <c r="A20" s="49" t="s">
+        <v>855</v>
+      </c>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:6">
@@ -5384,6 +5373,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" s="49" t="s">
+        <v>857</v>
+      </c>
       <c r="B22" t="s">
         <v>705</v>
       </c>
@@ -5399,6 +5391,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="49" t="s">
+        <v>856</v>
+      </c>
       <c r="B23" s="49" t="s">
         <v>778</v>
       </c>
@@ -5457,6 +5452,848 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="2" max="2" width="34.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>496</v>
+      </c>
+      <c r="B34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>496</v>
+      </c>
+      <c r="B38" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B40" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>518</v>
+      </c>
+      <c r="B41" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>518</v>
+      </c>
+      <c r="B48" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>496</v>
+      </c>
+      <c r="B54" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>496</v>
+      </c>
+      <c r="B55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>541</v>
+      </c>
+      <c r="C57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>496</v>
+      </c>
+      <c r="B60" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>496</v>
+      </c>
+      <c r="B61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" t="s">
+        <v>534</v>
+      </c>
+      <c r="C62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>496</v>
+      </c>
+      <c r="B64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>496</v>
+      </c>
+      <c r="B66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>496</v>
+      </c>
+      <c r="B69" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>518</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>496</v>
+      </c>
+      <c r="B81" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>496</v>
+      </c>
+      <c r="B83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>496</v>
+      </c>
+      <c r="B84" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>496</v>
+      </c>
+      <c r="B85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>502</v>
+      </c>
+      <c r="B90" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>502</v>
+      </c>
+      <c r="B91" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>496</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>674</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
   <dimension ref="A1:A83"/>
   <sheetViews>
@@ -5702,7 +6539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE354621-588A-4B21-BB13-B5E3178F81D7}">
   <dimension ref="A1:L226"/>
   <sheetViews>
@@ -8372,7 +9209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE67A0-59E8-4407-9000-5ED3F9ACE7BD}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -8689,7 +9526,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -8707,7 +9544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9E6C-9755-494E-B35F-D95B93657434}">
   <dimension ref="A1:E72"/>
   <sheetViews>
@@ -9071,11 +9908,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B1D55B-685D-4A2C-A793-CC4DF6381A63}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95E259-184D-4CA8-9B8B-55931C83A92B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -9085,16 +10007,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9130,7 +10052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AC116-74D7-4096-87CF-7429FB535D3B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -9145,10 +10067,10 @@
         <v>0.91</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9156,10 +10078,10 @@
         <v>0.01</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9167,10 +10089,10 @@
         <v>0.03</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9184,7 +10106,7 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -9192,12 +10114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -9210,216 +10132,156 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1" t="s">
         <v>808</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>804</v>
-      </c>
-      <c r="C1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E1" t="s">
-        <v>809</v>
-      </c>
-      <c r="H1" t="s">
-        <v>805</v>
       </c>
       <c r="I1">
         <v>100000</v>
       </c>
       <c r="J1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <f t="shared" ref="A2:A13" si="0">ROUND($I$1/$I$2/D2,0)</f>
-        <v>298</v>
+        <v>3268</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="D2" s="25">
-        <v>27.939980158730101</v>
+        <v>15.3</v>
       </c>
       <c r="I2">
         <f>COUNTA(B1:B2000)-1</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>914</v>
+        <v>14837</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="D3" s="25">
-        <v>9.1199999999999992</v>
+        <v>3.3700067888662502</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" t="e">
         <f t="shared" si="0"/>
-        <v>1558</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="D4" s="25">
-        <v>5.35</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" t="e">
         <f t="shared" si="0"/>
-        <v>1587</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="D5" s="25">
-        <v>5.2499999999999902</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" t="e">
         <f t="shared" si="0"/>
-        <v>1465</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="D6" s="25">
-        <v>5.6899964187656602</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="A7" t="e">
         <f t="shared" si="0"/>
-        <v>1881</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="D7" s="25">
-        <v>4.42999472851871</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="A8" t="e">
         <f t="shared" si="0"/>
-        <v>1233</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="D8" s="25">
-        <v>6.7599951917297698</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="A9" t="e">
         <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>845</v>
-      </c>
-      <c r="D9" s="25">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
+      <c r="A10" t="e">
         <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3.7699936695505301</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="A11" t="e">
         <f t="shared" si="0"/>
-        <v>1296</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="D11" s="25">
-        <v>6.43000361054278</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="A12" t="e">
         <f t="shared" si="0"/>
-        <v>814</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>850</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>851</v>
-      </c>
-      <c r="D12" s="25">
-        <v>10.240007883326699</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13">
+      <c r="A13" t="e">
         <f t="shared" si="0"/>
-        <v>622</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="D13" s="25">
-        <v>13.4</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:10">
       <c r="H14" s="25"/>
@@ -9430,7 +10292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DADBA-5C62-4A34-AC9B-233ED54E173D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9449,7 +10311,7 @@
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E1" s="58"/>
     </row>
@@ -9520,7 +10382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7146CF-7905-411D-AB60-014FE18FF5ED}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9786,7 +10648,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="E13" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -9794,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -9802,7 +10664,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -9810,7 +10672,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9821,7 +10683,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9845,7 +10707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D688AAC-D99D-48A3-AA61-E482F3E85832}">
   <dimension ref="A1:E66"/>
   <sheetViews>
@@ -10788,20 +11650,20 @@
       <c r="B56" s="21"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10894,7 +11756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
   <dimension ref="A1:G64"/>
   <sheetViews>
@@ -11428,846 +12290,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
-  <cols>
-    <col min="2" max="2" width="34.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>518</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>496</v>
-      </c>
-      <c r="B22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>496</v>
-      </c>
-      <c r="B23" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>496</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>496</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>496</v>
-      </c>
-      <c r="B27" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>496</v>
-      </c>
-      <c r="B28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>496</v>
-      </c>
-      <c r="B29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>496</v>
-      </c>
-      <c r="B30" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B31" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>496</v>
-      </c>
-      <c r="B34" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>496</v>
-      </c>
-      <c r="B35" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>496</v>
-      </c>
-      <c r="B36" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>496</v>
-      </c>
-      <c r="B37" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>496</v>
-      </c>
-      <c r="B38" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>496</v>
-      </c>
-      <c r="B40" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>518</v>
-      </c>
-      <c r="B41" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>518</v>
-      </c>
-      <c r="B42" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>518</v>
-      </c>
-      <c r="B43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>518</v>
-      </c>
-      <c r="B44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>518</v>
-      </c>
-      <c r="B45" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>518</v>
-      </c>
-      <c r="B46" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>518</v>
-      </c>
-      <c r="B47" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>518</v>
-      </c>
-      <c r="B48" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>496</v>
-      </c>
-      <c r="B49" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>496</v>
-      </c>
-      <c r="B50" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>518</v>
-      </c>
-      <c r="B51" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>496</v>
-      </c>
-      <c r="B52" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>496</v>
-      </c>
-      <c r="B53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B54" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>496</v>
-      </c>
-      <c r="B55" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>496</v>
-      </c>
-      <c r="B56" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B57" t="s">
-        <v>541</v>
-      </c>
-      <c r="C57" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" t="s">
-        <v>539</v>
-      </c>
-      <c r="C58" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>496</v>
-      </c>
-      <c r="B59" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>496</v>
-      </c>
-      <c r="B60" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
-      <c r="B61" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>496</v>
-      </c>
-      <c r="B62" t="s">
-        <v>534</v>
-      </c>
-      <c r="C62" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>496</v>
-      </c>
-      <c r="B63" t="s">
-        <v>532</v>
-      </c>
-      <c r="C63" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>496</v>
-      </c>
-      <c r="B64" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>496</v>
-      </c>
-      <c r="B65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>496</v>
-      </c>
-      <c r="B66" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>496</v>
-      </c>
-      <c r="B67" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>496</v>
-      </c>
-      <c r="B68" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>496</v>
-      </c>
-      <c r="B69" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>496</v>
-      </c>
-      <c r="B70" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>496</v>
-      </c>
-      <c r="B71" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>496</v>
-      </c>
-      <c r="B74" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>518</v>
-      </c>
-      <c r="B75" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>518</v>
-      </c>
-      <c r="B76" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>496</v>
-      </c>
-      <c r="B78" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>496</v>
-      </c>
-      <c r="B79" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>496</v>
-      </c>
-      <c r="B81" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>496</v>
-      </c>
-      <c r="B82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>496</v>
-      </c>
-      <c r="B84" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>496</v>
-      </c>
-      <c r="B85" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>496</v>
-      </c>
-      <c r="B86" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>496</v>
-      </c>
-      <c r="B87" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>496</v>
-      </c>
-      <c r="B88" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>502</v>
-      </c>
-      <c r="B90" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>502</v>
-      </c>
-      <c r="B91" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>496</v>
-      </c>
-      <c r="B92" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>496</v>
-      </c>
-      <c r="B93" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>496</v>
-      </c>
-      <c r="B95" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>496</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>674</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225617DC-FD65-42B4-9B05-9E09323E49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62430A63-36E2-4BAF-980C-AF7FD937F62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" activeTab="2" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
     <sheet name="resistance" sheetId="21" r:id="rId2"/>
-    <sheet name="模拟" sheetId="20" r:id="rId3"/>
-    <sheet name="kelly" sheetId="19" r:id="rId4"/>
-    <sheet name="Calc" sheetId="18" r:id="rId5"/>
-    <sheet name="测试" sheetId="17" r:id="rId6"/>
-    <sheet name="信号" sheetId="15" r:id="rId7"/>
-    <sheet name="问答" sheetId="1" r:id="rId8"/>
-    <sheet name="指标" sheetId="9" r:id="rId9"/>
-    <sheet name="科学" sheetId="6" r:id="rId10"/>
-    <sheet name="经济" sheetId="5" r:id="rId11"/>
-    <sheet name="储存" sheetId="3" r:id="rId12"/>
-    <sheet name="数据" sheetId="7" r:id="rId13"/>
-    <sheet name="Meta" sheetId="2" r:id="rId14"/>
+    <sheet name="indicator" sheetId="22" r:id="rId3"/>
+    <sheet name="模拟" sheetId="20" r:id="rId4"/>
+    <sheet name="kelly" sheetId="19" r:id="rId5"/>
+    <sheet name="Calc" sheetId="18" r:id="rId6"/>
+    <sheet name="测试" sheetId="17" r:id="rId7"/>
+    <sheet name="信号" sheetId="15" r:id="rId8"/>
+    <sheet name="问答" sheetId="1" r:id="rId9"/>
+    <sheet name="指标" sheetId="9" r:id="rId10"/>
+    <sheet name="科学" sheetId="6" r:id="rId11"/>
+    <sheet name="经济" sheetId="5" r:id="rId12"/>
+    <sheet name="储存" sheetId="3" r:id="rId13"/>
+    <sheet name="数据" sheetId="7" r:id="rId14"/>
+    <sheet name="Meta" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">问答!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">问答!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="873">
   <si>
     <t>General</t>
   </si>
@@ -3333,6 +3334,51 @@
   </si>
   <si>
     <t>Try the smallest share strategy: buy smallest absolute close price on each day</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Artificial</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>PE,PB,Close,Open,High,pct_chg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend, rs, </t>
+  </si>
+  <si>
+    <t>divide by absolute value, mean value, rank among all</t>
+  </si>
+  <si>
+    <t>MA, median, std, min, max, corr ,diff ,pct_chg</t>
+  </si>
+  <si>
+    <t>Statistical (rolling)</t>
+  </si>
+  <si>
+    <t>Technical (rolling)</t>
+  </si>
+  <si>
+    <t>Normalization (rolling, abs)</t>
+  </si>
+  <si>
+    <t>RSI,BOLL, Support Resistance, Trend</t>
   </si>
 </sst>
 </file>
@@ -5118,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5452,6 +5498,542 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="8.6796875" style="4"/>
+    <col min="2" max="2" width="20.58984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.31640625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625"/>
+    <col min="7" max="7" width="13.04296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="4" customWidth="1"/>
+    <col min="9" max="11" width="8.6796875" style="4"/>
+    <col min="12" max="12" width="13.2265625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.6796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.75">
+      <c r="A1" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32841ADC-F22B-4401-BCBA-6E5CDCC57F2A}">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -6293,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8E847-F0F5-4AC0-A22C-A661CAF5EEE3}">
   <dimension ref="A1:A83"/>
   <sheetViews>
@@ -6539,7 +7121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE354621-588A-4B21-BB13-B5E3178F81D7}">
   <dimension ref="A1:L226"/>
   <sheetViews>
@@ -9209,7 +9791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAE67A0-59E8-4407-9000-5ED3F9ACE7BD}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -9544,7 +10126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9E6C-9755-494E-B35F-D95B93657434}">
   <dimension ref="A1:E72"/>
   <sheetViews>
@@ -9912,7 +10494,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -9993,6 +10575,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A8E832-392C-456E-853B-B69FA03CCBC1}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A95E259-184D-4CA8-9B8B-55931C83A92B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10052,7 +10719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46AC116-74D7-4096-87CF-7429FB535D3B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10114,7 +10781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -10292,7 +10959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7DADBA-5C62-4A34-AC9B-233ED54E173D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -10382,7 +11049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7146CF-7905-411D-AB60-014FE18FF5ED}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -10707,7 +11374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D688AAC-D99D-48A3-AA61-E482F3E85832}">
   <dimension ref="A1:E66"/>
   <sheetViews>
@@ -11754,540 +12421,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C00FA0-CF19-4FFB-9491-FC2DC5B84460}">
-  <dimension ref="A1:G64"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.75"/>
-  <cols>
-    <col min="1" max="1" width="8.6796875" style="4"/>
-    <col min="2" max="2" width="20.58984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.31640625" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625"/>
-    <col min="7" max="7" width="13.04296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="4" customWidth="1"/>
-    <col min="9" max="11" width="8.6796875" style="4"/>
-    <col min="12" max="12" width="13.2265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20.7265625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.26953125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.6796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="13.75">
-      <c r="A1" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62430A63-36E2-4BAF-980C-AF7FD937F62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466D075-17C6-4C21-A14F-5D149DAFF7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" activeTab="2" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="946">
   <si>
     <t>General</t>
   </si>
@@ -3312,18 +3312,6 @@
     <t>vs1</t>
   </si>
   <si>
-    <t>300204.SZ</t>
-  </si>
-  <si>
-    <t>舒泰神</t>
-  </si>
-  <si>
-    <t>600289.SH</t>
-  </si>
-  <si>
-    <t>*ST信通</t>
-  </si>
-  <si>
     <t>write a good evaluator function to 1. create, 2. evaluate, 3. summarize the hypothesis = bruteforce</t>
   </si>
   <si>
@@ -3379,6 +3367,237 @@
   </si>
   <si>
     <t>RSI,BOLL, Support Resistance, Trend</t>
+  </si>
+  <si>
+    <t>300639.SZ</t>
+  </si>
+  <si>
+    <t>凯普生物</t>
+  </si>
+  <si>
+    <t>300192.SZ</t>
+  </si>
+  <si>
+    <t>科斯伍德</t>
+  </si>
+  <si>
+    <t>600845.SH</t>
+  </si>
+  <si>
+    <t>宝信软件</t>
+  </si>
+  <si>
+    <t>600804.SH</t>
+  </si>
+  <si>
+    <t>鹏博士</t>
+  </si>
+  <si>
+    <t>300037.SZ</t>
+  </si>
+  <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>000156.SZ</t>
+  </si>
+  <si>
+    <t>华数传媒</t>
+  </si>
+  <si>
+    <t>603083.SH</t>
+  </si>
+  <si>
+    <t>剑桥科技</t>
+  </si>
+  <si>
+    <t>300177.SZ</t>
+  </si>
+  <si>
+    <t>中海达</t>
+  </si>
+  <si>
+    <t>300264.SZ</t>
+  </si>
+  <si>
+    <t>佳创视讯</t>
+  </si>
+  <si>
+    <t>002777.SZ</t>
+  </si>
+  <si>
+    <t>久远银海</t>
+  </si>
+  <si>
+    <t>600712.SH</t>
+  </si>
+  <si>
+    <t>南宁百货</t>
+  </si>
+  <si>
+    <t>300250.SZ</t>
+  </si>
+  <si>
+    <t>初灵信息</t>
+  </si>
+  <si>
+    <t>为什么昨天两台电脑数据不同？</t>
+  </si>
+  <si>
+    <t>base indicator</t>
+  </si>
+  <si>
+    <t>name changes</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>pb_mean5</t>
+  </si>
+  <si>
+    <t>pb_std10</t>
+  </si>
+  <si>
+    <t>pb_pct</t>
+  </si>
+  <si>
+    <t>keyword internal</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>keyword and deriv</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>keyword and keyword</t>
+  </si>
+  <si>
+    <t>pb_mean5.pct_chg_mean5.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>pb(mean.5)(pct_chg)(std.10)(CLD_net)</t>
+  </si>
+  <si>
+    <t>pb[mean.5][pct_chg][std.10][CLD_net]</t>
+  </si>
+  <si>
+    <t>when a base class exists, all ist derivative automatically exist</t>
+  </si>
+  <si>
+    <t>just need to define the derivative function</t>
+  </si>
+  <si>
+    <t>for indicator in all indiators</t>
+  </si>
+  <si>
+    <t>for derivative in all derivatives</t>
+  </si>
+  <si>
+    <t>for threshhold in all possible_threshholfs</t>
+  </si>
+  <si>
+    <t>a list of all base indicators</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>deri indicators</t>
+  </si>
+  <si>
+    <t>all deri indicators combi</t>
+  </si>
+  <si>
+    <t>list of all derivatives</t>
+  </si>
+  <si>
+    <t>a list of tuneable variables</t>
+  </si>
+  <si>
+    <t>a place to define all functions</t>
+  </si>
+  <si>
+    <t>each class one function</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>each deri one function</t>
+  </si>
+  <si>
+    <t>通用接口</t>
+  </si>
+  <si>
+    <t>output individual</t>
+  </si>
+  <si>
+    <t>1 specify each function</t>
+  </si>
+  <si>
+    <t>2. specify each variable annotation</t>
+  </si>
+  <si>
+    <t>3. iterate through all variables</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>cov</t>
+  </si>
+  <si>
+    <t>skew</t>
+  </si>
+  <si>
+    <t>kurt</t>
   </si>
 </sst>
 </file>
@@ -5164,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DA0B-1B5F-4470-9FA3-A5DA13359AAE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5280,7 +5499,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D9" s="49" t="s">
         <v>765</v>
@@ -5399,7 +5618,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="49" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E20" s="52"/>
     </row>
@@ -5420,7 +5639,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="49" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B22" t="s">
         <v>705</v>
@@ -5438,7 +5657,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="49" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>778</v>
@@ -5470,6 +5689,9 @@
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>893</v>
+      </c>
       <c r="B25" s="49" t="s">
         <v>780</v>
       </c>
@@ -10576,86 +10798,291 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A8E832-392C-456E-853B-B69FA03CCBC1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C3" t="s">
         <v>862</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C4" t="s">
         <v>863</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C5" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B2" t="s">
-        <v>860</v>
-      </c>
-      <c r="C2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B3" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>859</v>
-      </c>
-      <c r="B4" t="s">
-        <v>871</v>
-      </c>
-      <c r="C4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>859</v>
-      </c>
-      <c r="B5" t="s">
-        <v>869</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>859</v>
-      </c>
-      <c r="B6" t="s">
-        <v>870</v>
-      </c>
-      <c r="C6" t="s">
-        <v>872</v>
+      <c r="N6" t="s">
+        <v>925</v>
+      </c>
+      <c r="U6" t="s">
+        <v>919</v>
+      </c>
+      <c r="X6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="J7" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>917</v>
+      </c>
+      <c r="T7" t="s">
+        <v>918</v>
+      </c>
+      <c r="U7" t="s">
+        <v>922</v>
+      </c>
+      <c r="W7" t="s">
+        <v>918</v>
+      </c>
+      <c r="X7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C8" t="s">
+        <v>901</v>
+      </c>
+      <c r="K8" t="s">
+        <v>915</v>
+      </c>
+      <c r="U8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C9" t="s">
+        <v>903</v>
+      </c>
+      <c r="F9" t="s">
+        <v>906</v>
+      </c>
+      <c r="L9" t="s">
+        <v>916</v>
+      </c>
+      <c r="U9" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" t="s">
+        <v>904</v>
+      </c>
+      <c r="F10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="F11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" t="s">
+        <v>894</v>
+      </c>
+      <c r="C13" t="s">
+        <v>895</v>
+      </c>
+      <c r="F13" t="s">
+        <v>909</v>
+      </c>
+      <c r="L13" t="s">
+        <v>929</v>
+      </c>
+      <c r="N13" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="F14" t="s">
+        <v>910</v>
+      </c>
+      <c r="N14" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" t="s">
+        <v>896</v>
+      </c>
+      <c r="C15" t="s">
+        <v>897</v>
+      </c>
+      <c r="D15" t="s">
+        <v>898</v>
+      </c>
+      <c r="E15" t="s">
+        <v>899</v>
+      </c>
+      <c r="F15" t="s">
+        <v>911</v>
+      </c>
+      <c r="N15" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="C16" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="F18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>934</v>
+      </c>
+      <c r="F19" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>935</v>
+      </c>
+      <c r="O20" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" t="s">
+        <v>936</v>
+      </c>
+      <c r="O21" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>937</v>
+      </c>
+      <c r="O22" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10783,15 +11210,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74848AFD-2D90-41D5-97CC-2C0F39AA2810}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
-    <col min="1" max="1" width="14.40625" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
     <col min="4" max="4" width="12.40625" customWidth="1"/>
     <col min="11" max="11" width="11.58984375" customWidth="1"/>
     <col min="12" max="12" width="11.04296875" customWidth="1"/>
@@ -10826,20 +11253,20 @@
     <row r="2" spans="1:10">
       <c r="A2">
         <f t="shared" ref="A2:A13" si="0">ROUND($I$1/$I$2/D2,0)</f>
-        <v>3268</v>
+        <v>260</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="D2" s="25">
-        <v>15.3</v>
+        <v>32.08</v>
       </c>
       <c r="I2">
         <f>COUNTA(B1:B2000)-1</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>809</v>
@@ -10848,111 +11275,176 @@
     <row r="3" spans="1:10">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>14837</v>
+        <v>590</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="D3" s="25">
-        <v>3.3700067888662502</v>
+        <v>14.1299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="e">
+      <c r="A4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+        <v>171</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="D4" s="25">
+        <v>48.7</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="e">
+      <c r="A5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+        <v>1265</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="D5" s="25">
+        <v>6.58999751799454</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="e">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+        <v>201</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="D6" s="25">
+        <v>41.499999999999901</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="e">
+      <c r="A7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+        <v>651</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="D7" s="25">
+        <v>12.810029211294999</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="e">
+      <c r="A8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+        <v>226</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="D8" s="25">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="e">
+      <c r="A9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+        <v>723</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="D9" s="25">
+        <v>11.5200032698438</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="e">
+      <c r="A10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+        <v>1270</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="D10" s="25">
+        <v>6.5600096595025299</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="e">
+      <c r="A11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+        <v>198</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="D11" s="25">
+        <v>42.030007473841501</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="e">
+      <c r="A12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+        <v>1159</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7.1899952807928198</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="e">
+      <c r="A13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+        <v>537</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="D13" s="25">
+        <v>15.5099904852521</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>893</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4466D075-17C6-4C21-A14F-5D149DAFF7EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBD293-A0B2-4451-A642-F5C4C94CBE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
@@ -5384,7 +5384,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>

--- a/All-In-One.xlsx
+++ b/All-In-One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\私人\私人 Stock 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBD293-A0B2-4451-A642-F5C4C94CBE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1570D831-59AA-437C-AF14-B6AA9C1A338B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="15180" windowHeight="9580" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
+    <workbookView xWindow="25611" yWindow="-103" windowWidth="16663" windowHeight="9463" tabRatio="844" xr2:uid="{E5341D75-8C28-4386-8249-C2E39010DE6C}"/>
   </bookViews>
   <sheets>
     <sheet name="未做" sheetId="10" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="947">
   <si>
     <t>General</t>
   </si>
@@ -3598,6 +3598,9 @@
   </si>
   <si>
     <t>kurt</t>
+  </si>
+  <si>
+    <t>add back all fun indicators</t>
   </si>
 </sst>
 </file>
@@ -5384,7 +5387,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="14.75"/>
@@ -5456,6 +5459,9 @@
     <row r="5" spans="1:5">
       <c r="A5" s="49" t="s">
         <v>832</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>946</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>796</v>
